--- a/src/output_files/NEW Course Info.xlsx
+++ b/src/output_files/NEW Course Info.xlsx
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CPSC 2106, CYBR 2160, CYBR 3128</t>
+          <t>CYBR 2160, CYBR 3128</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CPSC 2106, CPSC 2108</t>
+          <t>CPSC 2108, CYBR 2160</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>CPSC 2106, CYBR 2160</t>
+          <t>CYBR 2160</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CPSC 2106, CYBR 2160</t>
+          <t>CYBR 2160</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CPSC 2106, CPSC 2108, CYBR 2160</t>
+          <t>CPSC 2108, CYBR 2160</t>
         </is>
       </c>
       <c r="H66" t="n">

--- a/src/output_files/NEW Course Info.xlsx
+++ b/src/output_files/NEW Course Info.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>note</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +515,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,6 +543,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,6 +581,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -595,6 +609,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -630,6 +647,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -685,6 +708,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -715,6 +741,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -745,6 +774,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,6 +807,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -805,6 +840,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -835,6 +873,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -865,6 +906,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -895,6 +939,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -925,6 +972,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="K16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -955,6 +1005,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -985,6 +1038,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1015,6 +1071,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1040,6 +1099,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1070,6 +1132,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="K21" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1095,6 +1160,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1125,6 +1193,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="K23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1150,6 +1221,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="K24" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1180,6 +1254,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="K25" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1215,6 +1292,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="K26" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1250,6 +1330,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1280,6 +1363,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="K28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1310,6 +1396,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="K29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1340,6 +1429,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="K30" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1370,6 +1462,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="K31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1400,6 +1495,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="K32" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1430,6 +1528,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1460,6 +1561,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1490,6 +1594,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="K35" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1520,6 +1627,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="K36" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1550,6 +1660,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="K37" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1580,6 +1693,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="K38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1610,6 +1726,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="K39" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1640,6 +1759,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="K40" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1670,6 +1792,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="K41" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1700,6 +1825,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="K42" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1730,6 +1858,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="K43" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1755,6 +1886,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="K44" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1785,6 +1919,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="K45" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1810,6 +1947,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="K46" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1835,6 +1975,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="K47" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1860,6 +2003,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="K48" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1890,6 +2036,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="K49" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1920,6 +2069,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="K50" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1950,6 +2102,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="K51" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1980,6 +2135,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="K52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2010,6 +2168,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="K53" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2040,6 +2201,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2070,6 +2234,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="K55" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2100,6 +2267,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="K56" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2130,6 +2300,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="K57" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2160,6 +2333,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="K58" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2185,6 +2361,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="K59" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2215,6 +2394,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="K60" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2245,6 +2427,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="K61" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2275,6 +2460,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2305,6 +2493,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="K63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2330,6 +2521,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="K64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2360,6 +2554,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
+      <c r="K65" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2390,6 +2587,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="K66" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2420,6 +2620,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="K67" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2445,6 +2648,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="K68" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2475,6 +2681,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="K69" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2505,6 +2714,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="K70" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2534,6 +2746,9 @@
       </c>
       <c r="H71" t="n">
         <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="72">

--- a/src/output_files/NEW Course Info.xlsx
+++ b/src/output_files/NEW Course Info.xlsx
@@ -522,7 +522,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPSC 1301K</t>
+          <t>CPSC 1301</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -2774,6 +2774,9 @@
       </c>
       <c r="H72" t="n">
         <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,6 +2833,20 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MATH 1131</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MATH 1132</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
